--- a/data/xlsx/P-正确率-概率论2024.xlsx
+++ b/data/xlsx/P-正确率-概率论2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,7 +588,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>复习全书基础篇</t>
+          <t>复习全书基础</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -686,7 +686,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1800基础篇</t>
+          <t>1800基础</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>张宇基础篇</t>
+          <t>张宇基础</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -914,90 +914,182 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>张宇强化</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.3-1.4</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>70</v>
+      </c>
+      <c r="E6" t="n">
+        <v>88</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7955</v>
+      </c>
+      <c r="G6" t="n">
+        <v>18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>22</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8182</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8667</v>
+      </c>
+      <c r="M6" t="n">
+        <v>13</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.7647</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>13</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.6153999999999999</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
-        <v>372</v>
-      </c>
-      <c r="E6" t="n">
-        <v>455</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8176</v>
-      </c>
-      <c r="G6" t="n">
-        <v>68</v>
-      </c>
-      <c r="H6" t="n">
-        <v>79</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.8608</v>
-      </c>
-      <c r="J6" t="n">
-        <v>77</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>442</v>
+      </c>
+      <c r="E7" t="n">
+        <v>543</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="G7" t="n">
         <v>86</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.8953</v>
-      </c>
-      <c r="M6" t="n">
-        <v>67</v>
-      </c>
-      <c r="N6" t="n">
-        <v>83</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.8072</v>
-      </c>
-      <c r="P6" t="n">
-        <v>61</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>82</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.7439</v>
-      </c>
-      <c r="S6" t="n">
-        <v>20</v>
-      </c>
-      <c r="T6" t="n">
-        <v>24</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="V6" t="n">
-        <v>50</v>
-      </c>
-      <c r="W6" t="n">
-        <v>65</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.7692</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="H7" t="n">
+        <v>101</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8515</v>
+      </c>
+      <c r="J7" t="n">
+        <v>90</v>
+      </c>
+      <c r="K7" t="n">
+        <v>101</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8911</v>
+      </c>
+      <c r="M7" t="n">
+        <v>80</v>
+      </c>
+      <c r="N7" t="n">
+        <v>100</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>95</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.7262999999999999</v>
+      </c>
+      <c r="S7" t="n">
+        <v>23</v>
+      </c>
+      <c r="T7" t="n">
         <v>27</v>
       </c>
-      <c r="AA6" t="n">
-        <v>0.7778</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="U7" t="n">
+        <v>0.8519</v>
+      </c>
+      <c r="V7" t="n">
+        <v>53</v>
+      </c>
+      <c r="W7" t="n">
+        <v>69</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.7681</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.8048999999999999</v>
+      </c>
+      <c r="AB7" t="n">
         <v>8</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC7" t="n">
         <v>9</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD7" t="n">
         <v>0.8889</v>
       </c>
     </row>

--- a/data/xlsx/P-正确率-概率论2024.xlsx
+++ b/data/xlsx/P-正确率-概率论2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,7 +794,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11.3-11.0</t>
+          <t>11.3-11.10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -1006,91 +1006,369 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>复习全书提高</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2.7-2.9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2.7-2.12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>余炳森1000基础</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2.18-2.19</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>91</v>
+      </c>
+      <c r="E9" t="n">
+        <v>95</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9579</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>19</v>
+      </c>
+      <c r="N9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>20</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>10</v>
+      </c>
+      <c r="W9" t="n">
+        <v>12</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.9231</v>
+      </c>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>余炳森1000强化</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2.27-2.28</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>123</v>
+      </c>
+      <c r="E10" t="n">
+        <v>159</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7736</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8824</v>
+      </c>
+      <c r="J10" t="n">
+        <v>19</v>
+      </c>
+      <c r="K10" t="n">
+        <v>21</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9048</v>
+      </c>
+      <c r="M10" t="n">
+        <v>26</v>
+      </c>
+      <c r="N10" t="n">
+        <v>30</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.8667</v>
+      </c>
+      <c r="P10" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.8065</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="V10" t="n">
+        <v>7</v>
+      </c>
+      <c r="W10" t="n">
+        <v>16</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.9444</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.4211</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>442</v>
-      </c>
-      <c r="E7" t="n">
-        <v>543</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8139999999999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>86</v>
-      </c>
-      <c r="H7" t="n">
-        <v>101</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.8515</v>
-      </c>
-      <c r="J7" t="n">
-        <v>90</v>
-      </c>
-      <c r="K7" t="n">
-        <v>101</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.8911</v>
-      </c>
-      <c r="M7" t="n">
-        <v>80</v>
-      </c>
-      <c r="N7" t="n">
-        <v>100</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="P7" t="n">
-        <v>69</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>95</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.7262999999999999</v>
-      </c>
-      <c r="S7" t="n">
-        <v>23</v>
-      </c>
-      <c r="T7" t="n">
-        <v>27</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.8519</v>
-      </c>
-      <c r="V7" t="n">
-        <v>53</v>
-      </c>
-      <c r="W7" t="n">
-        <v>69</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.7681</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.8048999999999999</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.8889</v>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>656</v>
+      </c>
+      <c r="E11" t="n">
+        <v>797</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8231000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>112</v>
+      </c>
+      <c r="H11" t="n">
+        <v>129</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8682</v>
+      </c>
+      <c r="J11" t="n">
+        <v>123</v>
+      </c>
+      <c r="K11" t="n">
+        <v>136</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9044</v>
+      </c>
+      <c r="M11" t="n">
+        <v>125</v>
+      </c>
+      <c r="N11" t="n">
+        <v>150</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="P11" t="n">
+        <v>114</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>146</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.7808</v>
+      </c>
+      <c r="S11" t="n">
+        <v>34</v>
+      </c>
+      <c r="T11" t="n">
+        <v>39</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.8718</v>
+      </c>
+      <c r="V11" t="n">
+        <v>70</v>
+      </c>
+      <c r="W11" t="n">
+        <v>97</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.7216</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>62</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.5714</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/P-正确率-概率论2024.xlsx
+++ b/data/xlsx/P-正确率-概率论2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1284,90 +1284,176 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>张宇基础</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>二刷</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3.16-3.18</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>152</v>
+      </c>
+      <c r="E11" t="n">
+        <v>162</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9383</v>
+      </c>
+      <c r="G11" t="n">
+        <v>31</v>
+      </c>
+      <c r="H11" t="n">
+        <v>34</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9118000000000001</v>
+      </c>
+      <c r="J11" t="n">
+        <v>34</v>
+      </c>
+      <c r="K11" t="n">
+        <v>35</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.9714</v>
+      </c>
+      <c r="M11" t="n">
+        <v>27</v>
+      </c>
+      <c r="N11" t="n">
+        <v>29</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="P11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="S11" t="n">
+        <v>11</v>
+      </c>
+      <c r="T11" t="n">
+        <v>11</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>26</v>
+      </c>
+      <c r="W11" t="n">
+        <v>28</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.9286</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>656</v>
-      </c>
-      <c r="E11" t="n">
-        <v>797</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.8231000000000001</v>
-      </c>
-      <c r="G11" t="n">
-        <v>112</v>
-      </c>
-      <c r="H11" t="n">
-        <v>129</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.8682</v>
-      </c>
-      <c r="J11" t="n">
-        <v>123</v>
-      </c>
-      <c r="K11" t="n">
-        <v>136</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.9044</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>808</v>
+      </c>
+      <c r="E12" t="n">
+        <v>959</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8425</v>
+      </c>
+      <c r="G12" t="n">
+        <v>143</v>
+      </c>
+      <c r="H12" t="n">
+        <v>163</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8773</v>
+      </c>
+      <c r="J12" t="n">
+        <v>157</v>
+      </c>
+      <c r="K12" t="n">
+        <v>171</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9181</v>
+      </c>
+      <c r="M12" t="n">
+        <v>152</v>
+      </c>
+      <c r="N12" t="n">
+        <v>179</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8492</v>
+      </c>
+      <c r="P12" t="n">
+        <v>137</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>171</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.8012</v>
+      </c>
+      <c r="S12" t="n">
+        <v>45</v>
+      </c>
+      <c r="T12" t="n">
+        <v>50</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V12" t="n">
+        <v>96</v>
+      </c>
+      <c r="W12" t="n">
         <v>125</v>
       </c>
-      <c r="N11" t="n">
-        <v>150</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.8333</v>
-      </c>
-      <c r="P11" t="n">
-        <v>114</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>146</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.7808</v>
-      </c>
-      <c r="S11" t="n">
-        <v>34</v>
-      </c>
-      <c r="T11" t="n">
-        <v>39</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.8718</v>
-      </c>
-      <c r="V11" t="n">
-        <v>70</v>
-      </c>
-      <c r="W11" t="n">
-        <v>97</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.7216</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="X12" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="Y12" t="n">
         <v>62</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z12" t="n">
         <v>72</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA12" t="n">
         <v>0.8611</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB12" t="n">
         <v>16</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC12" t="n">
         <v>28</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD12" t="n">
         <v>0.5714</v>
       </c>
     </row>

--- a/data/xlsx/P-正确率-概率论2024.xlsx
+++ b/data/xlsx/P-正确率-概率论2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,33 +797,87 @@
           <t>11.3-11.10</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>307</v>
+      </c>
+      <c r="E4" t="n">
+        <v>338</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9083</v>
+      </c>
+      <c r="G4" t="n">
+        <v>58</v>
+      </c>
+      <c r="H4" t="n">
+        <v>65</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8923</v>
+      </c>
+      <c r="J4" t="n">
+        <v>65</v>
+      </c>
+      <c r="K4" t="n">
+        <v>68</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9559</v>
+      </c>
+      <c r="M4" t="n">
+        <v>67</v>
+      </c>
+      <c r="N4" t="n">
+        <v>79</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.8481</v>
+      </c>
+      <c r="P4" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>51</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9608</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>9</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.7778</v>
+      </c>
+      <c r="V4" t="n">
+        <v>16</v>
+      </c>
+      <c r="W4" t="n">
+        <v>18</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.8889</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.9143</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1370,91 +1424,189 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>杨超139强化</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>二刷</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5.16-5.18</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>324</v>
+      </c>
+      <c r="E12" t="n">
+        <v>338</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9586</v>
+      </c>
+      <c r="G12" t="n">
+        <v>62</v>
+      </c>
+      <c r="H12" t="n">
+        <v>65</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9538</v>
+      </c>
+      <c r="J12" t="n">
+        <v>67</v>
+      </c>
+      <c r="K12" t="n">
+        <v>68</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9853</v>
+      </c>
+      <c r="M12" t="n">
+        <v>70</v>
+      </c>
+      <c r="N12" t="n">
+        <v>79</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8861</v>
+      </c>
+      <c r="P12" t="n">
+        <v>51</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>51</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>9</v>
+      </c>
+      <c r="T12" t="n">
+        <v>9</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>17</v>
+      </c>
+      <c r="W12" t="n">
+        <v>18</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.9444</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Sum</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>808</v>
-      </c>
-      <c r="E12" t="n">
-        <v>959</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.8425</v>
-      </c>
-      <c r="G12" t="n">
-        <v>143</v>
-      </c>
-      <c r="H12" t="n">
-        <v>163</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.8773</v>
-      </c>
-      <c r="J12" t="n">
-        <v>157</v>
-      </c>
-      <c r="K12" t="n">
-        <v>171</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.9181</v>
-      </c>
-      <c r="M12" t="n">
-        <v>152</v>
-      </c>
-      <c r="N12" t="n">
-        <v>179</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.8492</v>
-      </c>
-      <c r="P12" t="n">
-        <v>137</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>171</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>1439</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1635</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8801</v>
+      </c>
+      <c r="G13" t="n">
+        <v>263</v>
+      </c>
+      <c r="H13" t="n">
+        <v>293</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8976</v>
+      </c>
+      <c r="J13" t="n">
+        <v>289</v>
+      </c>
+      <c r="K13" t="n">
+        <v>307</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.9414</v>
+      </c>
+      <c r="M13" t="n">
+        <v>289</v>
+      </c>
+      <c r="N13" t="n">
+        <v>337</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8576</v>
+      </c>
+      <c r="P13" t="n">
+        <v>237</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>273</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.8681</v>
+      </c>
+      <c r="S13" t="n">
+        <v>61</v>
+      </c>
+      <c r="T13" t="n">
+        <v>68</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.8971</v>
+      </c>
+      <c r="V13" t="n">
+        <v>129</v>
+      </c>
+      <c r="W13" t="n">
+        <v>161</v>
+      </c>
+      <c r="X13" t="n">
         <v>0.8012</v>
       </c>
-      <c r="S12" t="n">
-        <v>45</v>
-      </c>
-      <c r="T12" t="n">
-        <v>50</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="V12" t="n">
-        <v>96</v>
-      </c>
-      <c r="W12" t="n">
-        <v>125</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.8611</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.5714</v>
+      <c r="Y13" t="n">
+        <v>129</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>142</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.9085</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>54</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.7778</v>
       </c>
     </row>
   </sheetData>
